--- a/biology/Médecine/FLT3/FLT3.xlsx
+++ b/biology/Médecine/FLT3/FLT3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">FLT3 (pour « Fms-like tyrosine kinase 3 ») est un récepteur tyrosine kinase. Son gène est le FLT3. Il est appelé aussi CD 135 ou FLK2 (pour « fetal liver kinase-2 »)
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé par les cellules souches hématopoïétiques. Sa stimulation diminue l'apoptose[1] et active la prolifération[2] de ces dernières. Le TNF alpha et le TGF bêta inhibent son action[1].
-Il est également exprimé dans le cœur et aurait un rôle de protection, notamment, en cas d'ischémie myocardique[3]. Son inhibition via certains antimitotiques pourrait être ainsi une explication à la cardiotoxicité de ces derniers[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé par les cellules souches hématopoïétiques. Sa stimulation diminue l'apoptose et active la prolifération de ces dernières. Le TNF alpha et le TGF bêta inhibent son action.
+Il est également exprimé dans le cœur et aurait un rôle de protection, notamment, en cas d'ischémie myocardique. Son inhibition via certains antimitotiques pourrait être ainsi une explication à la cardiotoxicité de ces derniers.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son gène est muté dans un tiers des leucémies aiguës myéloblastiques et indicateur de formes plus agressives[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son gène est muté dans un tiers des leucémies aiguës myéloblastiques et indicateur de formes plus agressives.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Cible thérapeutiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs antimitotiques ciblent le FLT3 et sont utilisés dans le traitement des leucémies aiguës[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs antimitotiques ciblent le FLT3 et sont utilisés dans le traitement des leucémies aiguës.
 </t>
         </is>
       </c>
